--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1322549.92287489</v>
+        <v>1357868.678200658</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914463</v>
+        <v>426806.9758914462</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8537720.762941021</v>
+        <v>8537720.762941023</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>64.1386326986768</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -706,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>198.7050131246913</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>3.417594116203461</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>184.1503857182574</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>96.13285199009043</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>50.29171516770226</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -986,13 +986,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>97.82367936158336</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>14.59515906968671</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="V8" t="n">
         <v>241.0142888776591</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>48.83589518354175</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>34.66067414728059</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>7.837102735344149</v>
       </c>
     </row>
     <row r="10">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1378,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>233.4508650752662</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>186.6010627175537</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>6.098631347230446</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1463,10 +1463,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.64958867533</v>
+        <v>100.8367104035704</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>98.14773386423099</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>47.23959131629395</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>56.47598125911473</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.005789270132</v>
+        <v>14.88708979054449</v>
       </c>
       <c r="H14" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1700,10 +1700,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H15" t="n">
-        <v>35.33191364804642</v>
+        <v>0.4026817847173583</v>
       </c>
       <c r="I15" t="n">
         <v>65.50479675552441</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S15" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>197.3677099213027</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4092130247883</v>
+        <v>47.47529300550337</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>132.203723304543</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,10 +1861,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
-        <v>180.5899658351141</v>
+        <v>233.3166206999903</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>111.0188171299941</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>13.08993799274037</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2418970482362</v>
+        <v>245.7132839090413</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>134.4556971810908</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,7 +2165,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>107.8189881592314</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2177,7 +2177,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H21" t="n">
-        <v>65.90747854024177</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2244,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>13.08993799274037</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>72.27170098054204</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>199.3984245048955</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>223.3184399210375</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2411,10 +2411,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
         <v>43.76331341951682</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>254.9331912933693</v>
+        <v>47.77250330710061</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>5.569415818869228</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>258.7623063908704</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>130.7203053781082</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2651,7 +2651,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>158.7937537960548</v>
@@ -2690,7 +2690,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U27" t="n">
-        <v>27.47589768952058</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>13.08993799274037</v>
+        <v>13.08993799274036</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,13 +2794,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2845,13 +2845,13 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2418970482362</v>
+        <v>171.5762254763158</v>
       </c>
       <c r="V29" t="n">
-        <v>121.0953087484557</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>16.29864623799213</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -2891,7 +2891,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>197.3677099213027</v>
+        <v>149.3102327444251</v>
       </c>
       <c r="U30" t="n">
         <v>225.8957288909827</v>
@@ -2952,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>7.757925659830926</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,7 +2964,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>126.7984012085847</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>188.3763548484507</v>
       </c>
       <c r="G32" t="n">
-        <v>289.3218371322278</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,10 +3082,10 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3122,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>43.76331341951682</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3170,7 +3170,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>158.8087079051069</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>74.15307578127809</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>13.08993799274038</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I35" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
-        <v>48.86156479451108</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>90.19223271877578</v>
       </c>
     </row>
     <row r="36">
@@ -3359,13 +3359,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5335559456492</v>
+        <v>100.8367104035704</v>
       </c>
       <c r="I36" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>19.04449791804963</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>158.7937537960548</v>
@@ -3401,7 +3401,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>93.23799174705603</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>108.0529342638478</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>414.005789270132</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.3996927459763</v>
+        <v>26.73110927253554</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>18.53804284654761</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3587,13 +3587,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>104.2944616473225</v>
       </c>
       <c r="F39" t="n">
-        <v>94.09444675656027</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>136.64958867533</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>42.05848982862546</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.4598605480533</v>
+        <v>220.881616978049</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>309.0084975020647</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>253.8563443360092</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>117.3270331323351</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3836,7 +3836,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
-        <v>14.31742697697815</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
         <v>65.50479675552441</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>158.7937537960548</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>153.1789736827622</v>
+        <v>152.9432719935528</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>200.2018960961141</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>84.69992719014299</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>110.9264804087664</v>
       </c>
       <c r="G45" t="n">
         <v>136.64958867533</v>
@@ -4121,7 +4121,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>171.6302532188599</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>47.55828155274813</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4092130247883</v>
+        <v>75.46612597582318</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S46" t="n">
         <v>213.8779974765521</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509.8046290289238</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C2" t="n">
-        <v>509.8046290289238</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D2" t="n">
-        <v>509.8046290289238</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E2" t="n">
-        <v>509.8046290289238</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F2" t="n">
-        <v>502.8591282797204</v>
+        <v>308.7395386897029</v>
       </c>
       <c r="G2" t="n">
-        <v>487.4018176583718</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
         <v>243.9530410142718</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>710.516763498309</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V2" t="n">
-        <v>710.516763498309</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W2" t="n">
-        <v>710.516763498309</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X2" t="n">
-        <v>509.8046290289238</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y2" t="n">
-        <v>509.8046290289238</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>557.2375949899332</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C3" t="n">
-        <v>557.2375949899332</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D3" t="n">
-        <v>408.3031853286819</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E3" t="n">
-        <v>249.0657303232264</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F3" t="n">
-        <v>249.0657303232264</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4418,7 +4418,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4442,19 +4442,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>960.6050402417438</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>725.4529320100012</v>
+        <v>778.0466648861338</v>
       </c>
       <c r="W3" t="n">
-        <v>725.4529320100012</v>
+        <v>778.0466648861338</v>
       </c>
       <c r="X3" t="n">
-        <v>725.4529320100012</v>
+        <v>570.195164680601</v>
       </c>
       <c r="Y3" t="n">
-        <v>725.4529320100012</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>348.0024326625565</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C5" t="n">
-        <v>348.0024326625565</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D5" t="n">
-        <v>348.0024326625565</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>348.0024326625565</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>341.056931913353</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4603,16 +4603,16 @@
         <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>591.4512093066566</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W5" t="n">
-        <v>591.4512093066566</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="X5" t="n">
-        <v>591.4512093066566</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="Y5" t="n">
-        <v>348.0024326625565</v>
+        <v>297.2027203719481</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>461.2466632505798</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C6" t="n">
-        <v>461.2466632505798</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D6" t="n">
-        <v>461.2466632505798</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E6" t="n">
-        <v>461.2466632505798</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>461.2466632505798</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V6" t="n">
-        <v>461.2466632505798</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W6" t="n">
-        <v>461.2466632505798</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X6" t="n">
-        <v>461.2466632505798</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y6" t="n">
-        <v>461.2466632505798</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4761,16 +4761,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C8" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>266.3558523848238</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>259.4103516356203</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>559.1338160830064</v>
+        <v>784.1002736601483</v>
       </c>
       <c r="V8" t="n">
-        <v>315.6850394389064</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="W8" t="n">
-        <v>315.6850394389064</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="X8" t="n">
-        <v>266.3558523848238</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="Y8" t="n">
-        <v>266.3558523848238</v>
+        <v>297.2027203719481</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G9" t="n">
         <v>20.03527576299844</v>
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>298.4948343740486</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>55.04605772994853</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>956.1408901213997</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
         <v>41.77557929797318</v>
@@ -4983,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1787.054446563166</v>
+        <v>1409.052095095974</v>
       </c>
       <c r="C11" t="n">
-        <v>1418.091929622755</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="D11" t="n">
-        <v>1418.091929622755</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="E11" t="n">
-        <v>1032.303677024511</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="F11" t="n">
-        <v>796.4947224030295</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G11" t="n">
-        <v>378.3070564736033</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H11" t="n">
-        <v>48.81975253256328</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I11" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J11" t="n">
         <v>145.9660485697318</v>
       </c>
       <c r="K11" t="n">
-        <v>412.3079679977593</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L11" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M11" t="n">
         <v>1237.436361307048</v>
@@ -5059,34 +5059,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P11" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q11" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2371.897027894855</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S11" t="n">
-        <v>2371.897027894855</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T11" t="n">
-        <v>2371.897027894855</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U11" t="n">
-        <v>2118.117333906737</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="V11" t="n">
-        <v>1787.054446563166</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="W11" t="n">
-        <v>1787.054446563166</v>
+        <v>1782.517853357054</v>
       </c>
       <c r="X11" t="n">
-        <v>1787.054446563166</v>
+        <v>1409.052095095974</v>
       </c>
       <c r="Y11" t="n">
-        <v>1787.054446563166</v>
+        <v>1409.052095095974</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>779.834467487422</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C12" t="n">
-        <v>605.381438206295</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D12" t="n">
-        <v>599.2212045222238</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E12" t="n">
-        <v>439.9837495167684</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F12" t="n">
-        <v>293.4491915436533</v>
+        <v>150.6750155664728</v>
       </c>
       <c r="G12" t="n">
-        <v>155.419303992815</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H12" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I12" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>81.9375139983886</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K12" t="n">
-        <v>318.2287647883257</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L12" t="n">
-        <v>697.355907913719</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M12" t="n">
-        <v>1191.758623309282</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N12" t="n">
-        <v>1714.953720827628</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O12" t="n">
-        <v>2127.159342346857</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P12" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
@@ -5147,10 +5147,10 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S12" t="n">
-        <v>2280.589895521038</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T12" t="n">
-        <v>2081.228572368207</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U12" t="n">
         <v>1853.051068437921</v>
@@ -5159,13 +5159,13 @@
         <v>1617.898960206178</v>
       </c>
       <c r="W12" t="n">
-        <v>1363.661603477977</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X12" t="n">
-        <v>1155.810103272444</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y12" t="n">
-        <v>948.0498045074901</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.81975253256328</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="C13" t="n">
-        <v>48.81975253256328</v>
+        <v>388.8373662811245</v>
       </c>
       <c r="D13" t="n">
-        <v>48.81975253256328</v>
+        <v>388.8373662811245</v>
       </c>
       <c r="E13" t="n">
-        <v>48.81975253256328</v>
+        <v>240.9242726987314</v>
       </c>
       <c r="F13" t="n">
-        <v>48.81975253256328</v>
+        <v>240.9242726987314</v>
       </c>
       <c r="G13" t="n">
-        <v>48.81975253256328</v>
+        <v>240.9242726987314</v>
       </c>
       <c r="H13" t="n">
-        <v>48.81975253256328</v>
+        <v>240.9242726987314</v>
       </c>
       <c r="I13" t="n">
-        <v>48.81975253256328</v>
+        <v>101.57561144789</v>
       </c>
       <c r="J13" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K13" t="n">
-        <v>93.68771932371202</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L13" t="n">
         <v>206.6297039190408</v>
@@ -5223,28 +5223,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R13" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="S13" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="T13" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="U13" t="n">
-        <v>592.9214107754108</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="V13" t="n">
-        <v>338.2369225695239</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="W13" t="n">
-        <v>48.81975253256328</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="X13" t="n">
-        <v>48.81975253256328</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.81975253256328</v>
+        <v>487.9764913965093</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1608.291937657963</v>
+        <v>913.7064744192123</v>
       </c>
       <c r="C14" t="n">
-        <v>1239.329420717551</v>
+        <v>913.7064744192123</v>
       </c>
       <c r="D14" t="n">
-        <v>1182.282975001274</v>
+        <v>555.4407758124619</v>
       </c>
       <c r="E14" t="n">
-        <v>796.4947224030295</v>
+        <v>555.4407758124619</v>
       </c>
       <c r="F14" t="n">
-        <v>796.4947224030295</v>
+        <v>555.4407758124619</v>
       </c>
       <c r="G14" t="n">
-        <v>378.3070564736033</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H14" t="n">
-        <v>48.81975253256328</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I14" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J14" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K14" t="n">
-        <v>412.3079679977593</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L14" t="n">
-        <v>795.005298154005</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M14" t="n">
-        <v>1237.436361307049</v>
+        <v>1237.436361307048</v>
       </c>
       <c r="N14" t="n">
         <v>1672.394424063531</v>
@@ -5296,34 +5296,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P14" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q14" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2371.897027894855</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S14" t="n">
-        <v>2371.897027894855</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T14" t="n">
-        <v>2371.897027894855</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U14" t="n">
-        <v>2371.897027894855</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="V14" t="n">
-        <v>2371.897027894855</v>
+        <v>1639.940887950406</v>
       </c>
       <c r="W14" t="n">
-        <v>2371.897027894855</v>
+        <v>1287.172232680292</v>
       </c>
       <c r="X14" t="n">
-        <v>1998.431269633775</v>
+        <v>913.7064744192123</v>
       </c>
       <c r="Y14" t="n">
-        <v>1608.291937657963</v>
+        <v>913.7064744192123</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>779.834467487422</v>
+        <v>882.5823026510593</v>
       </c>
       <c r="C15" t="n">
-        <v>605.381438206295</v>
+        <v>708.1292733699323</v>
       </c>
       <c r="D15" t="n">
-        <v>456.4470285450437</v>
+        <v>559.1948637086811</v>
       </c>
       <c r="E15" t="n">
-        <v>297.2095735395882</v>
+        <v>399.9574087032256</v>
       </c>
       <c r="F15" t="n">
-        <v>150.6750155664732</v>
+        <v>253.4228507301105</v>
       </c>
       <c r="G15" t="n">
-        <v>150.6750155664732</v>
+        <v>115.3929631792721</v>
       </c>
       <c r="H15" t="n">
         <v>114.9862139017798</v>
       </c>
       <c r="I15" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K15" t="n">
-        <v>161.1406371339193</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L15" t="n">
-        <v>540.2677802593125</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M15" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N15" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O15" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R15" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S15" t="n">
-        <v>2280.589895521038</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="T15" t="n">
-        <v>2081.228572368207</v>
+        <v>2183.976407531844</v>
       </c>
       <c r="U15" t="n">
-        <v>1853.051068437921</v>
+        <v>1955.798903601558</v>
       </c>
       <c r="V15" t="n">
-        <v>1617.898960206178</v>
+        <v>1720.646795369816</v>
       </c>
       <c r="W15" t="n">
-        <v>1363.661603477977</v>
+        <v>1466.409438641614</v>
       </c>
       <c r="X15" t="n">
-        <v>1155.810103272444</v>
+        <v>1258.557938436081</v>
       </c>
       <c r="Y15" t="n">
-        <v>948.0498045074901</v>
+        <v>1050.797639671127</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>217.9199677091172</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="C16" t="n">
-        <v>217.9199677091172</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="D16" t="n">
-        <v>217.9199677091172</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="E16" t="n">
-        <v>217.9199677091172</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="F16" t="n">
-        <v>217.9199677091172</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="G16" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H16" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I16" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J16" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K16" t="n">
-        <v>93.68771932371202</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L16" t="n">
         <v>206.6297039190408</v>
@@ -5466,22 +5466,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T16" t="n">
-        <v>507.0990552317248</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U16" t="n">
-        <v>217.9199677091172</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V16" t="n">
-        <v>217.9199677091172</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="W16" t="n">
-        <v>217.9199677091172</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="X16" t="n">
-        <v>217.9199677091172</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="Y16" t="n">
-        <v>217.9199677091172</v>
+        <v>96.77459395226364</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1425.877830753807</v>
+        <v>1951.534578397632</v>
       </c>
       <c r="C17" t="n">
-        <v>1425.877830753807</v>
+        <v>1951.534578397632</v>
       </c>
       <c r="D17" t="n">
-        <v>1425.877830753807</v>
+        <v>1593.268879790881</v>
       </c>
       <c r="E17" t="n">
-        <v>1040.089578155562</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F17" t="n">
-        <v>629.1036733659547</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G17" t="n">
-        <v>210.9160074365284</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H17" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I17" t="n">
         <v>48.81975253256327</v>
@@ -5521,13 +5521,13 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N17" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O17" t="n">
         <v>2037.925350935285</v>
@@ -5539,28 +5539,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R17" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S17" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T17" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U17" t="n">
-        <v>2371.897027894854</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="V17" t="n">
-        <v>2189.482920990698</v>
+        <v>1951.534578397632</v>
       </c>
       <c r="W17" t="n">
-        <v>2189.482920990698</v>
+        <v>1951.534578397632</v>
       </c>
       <c r="X17" t="n">
-        <v>1816.017162729618</v>
+        <v>1951.534578397632</v>
       </c>
       <c r="Y17" t="n">
-        <v>1425.877830753807</v>
+        <v>1951.534578397632</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J18" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K18" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L18" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N18" t="n">
-        <v>1681.835959361802</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O18" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q18" t="n">
         <v>2440.987626628164</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>458.9897048505185</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C19" t="n">
-        <v>458.9897048505185</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D19" t="n">
-        <v>308.8730654381827</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E19" t="n">
-        <v>160.9599718557896</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F19" t="n">
-        <v>160.9599718557896</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G19" t="n">
-        <v>160.9599718557896</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H19" t="n">
         <v>48.81975253256327</v>
@@ -5706,19 +5706,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U19" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V19" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W19" t="n">
-        <v>640.6381696807582</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="X19" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y19" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>852.7956710602338</v>
+        <v>1122.361007678598</v>
       </c>
       <c r="C20" t="n">
-        <v>852.7956710602338</v>
+        <v>1122.361007678598</v>
       </c>
       <c r="D20" t="n">
-        <v>852.7956710602338</v>
+        <v>764.0953090718475</v>
       </c>
       <c r="E20" t="n">
-        <v>467.0074184619895</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="F20" t="n">
-        <v>467.0074184619895</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G20" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H20" t="n">
         <v>48.81975253256327</v>
@@ -5758,7 +5758,7 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
@@ -5776,28 +5776,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R20" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S20" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T20" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U20" t="n">
-        <v>2118.117333906737</v>
+        <v>2192.792390356405</v>
       </c>
       <c r="V20" t="n">
-        <v>2118.117333906737</v>
+        <v>1861.729503012834</v>
       </c>
       <c r="W20" t="n">
-        <v>1765.348678636623</v>
+        <v>1508.96084774272</v>
       </c>
       <c r="X20" t="n">
-        <v>1629.534843100167</v>
+        <v>1508.96084774272</v>
       </c>
       <c r="Y20" t="n">
-        <v>1239.395511124356</v>
+        <v>1508.96084774272</v>
       </c>
     </row>
     <row r="21">
@@ -5813,16 +5813,16 @@
         <v>708.1292733699323</v>
       </c>
       <c r="D21" t="n">
-        <v>559.1948637086811</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E21" t="n">
-        <v>399.9574087032256</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F21" t="n">
-        <v>253.4228507301105</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G21" t="n">
-        <v>115.3929631792721</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H21" t="n">
         <v>48.81975253256327</v>
@@ -5831,25 +5831,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J21" t="n">
-        <v>81.93751399838814</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K21" t="n">
-        <v>318.2287647883252</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L21" t="n">
-        <v>697.3559079137185</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M21" t="n">
-        <v>1191.758623309281</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N21" t="n">
-        <v>1714.953720827627</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O21" t="n">
-        <v>2127.159342346856</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P21" t="n">
-        <v>2440.987626628164</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.987626628164</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>198.936391944899</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="C22" t="n">
-        <v>198.936391944899</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="D22" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="E22" t="n">
         <v>48.81975253256327</v>
@@ -5934,28 +5934,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R22" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S22" t="n">
-        <v>271.9381101070627</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T22" t="n">
-        <v>198.936391944899</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U22" t="n">
-        <v>198.936391944899</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V22" t="n">
-        <v>198.936391944899</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W22" t="n">
-        <v>198.936391944899</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="X22" t="n">
-        <v>198.936391944899</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="Y22" t="n">
-        <v>198.936391944899</v>
+        <v>62.04191212118991</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1071.168091658837</v>
+        <v>1079.405873256542</v>
       </c>
       <c r="C23" t="n">
-        <v>1071.168091658837</v>
+        <v>1079.405873256542</v>
       </c>
       <c r="D23" t="n">
-        <v>1071.168091658837</v>
+        <v>1079.405873256542</v>
       </c>
       <c r="E23" t="n">
-        <v>685.3798390605925</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F23" t="n">
-        <v>274.393934270985</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G23" t="n">
         <v>48.81975253256327</v>
@@ -6019,22 +6019,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T23" t="n">
-        <v>2221.37302195985</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U23" t="n">
-        <v>2221.37302195985</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="V23" t="n">
-        <v>2221.37302195985</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="W23" t="n">
-        <v>2221.37302195985</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="X23" t="n">
-        <v>1847.90726369877</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="Y23" t="n">
-        <v>1457.767931722959</v>
+        <v>1466.005713320664</v>
       </c>
     </row>
     <row r="24">
@@ -6059,7 +6059,7 @@
         <v>93.02511962298431</v>
       </c>
       <c r="G24" t="n">
-        <v>48.81975253256327</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H24" t="n">
         <v>48.81975253256327</v>
@@ -6077,16 +6077,16 @@
         <v>664.2381464478937</v>
       </c>
       <c r="M24" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N24" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O24" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.987626628164</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.81975253256327</v>
+        <v>364.6458829583805</v>
       </c>
       <c r="C25" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="D25" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E25" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F25" t="n">
         <v>48.81975253256327</v>
@@ -6171,28 +6171,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R25" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S25" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T25" t="n">
-        <v>487.9764913965093</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U25" t="n">
-        <v>487.9764913965093</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="V25" t="n">
-        <v>487.9764913965093</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="W25" t="n">
-        <v>230.468217362803</v>
+        <v>364.6458829583805</v>
       </c>
       <c r="X25" t="n">
-        <v>230.468217362803</v>
+        <v>364.6458829583805</v>
       </c>
       <c r="Y25" t="n">
-        <v>230.468217362803</v>
+        <v>364.6458829583805</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1301.465645217047</v>
+        <v>851.2195824647274</v>
       </c>
       <c r="C26" t="n">
-        <v>1301.465645217047</v>
+        <v>851.2195824647274</v>
       </c>
       <c r="D26" t="n">
-        <v>1301.465645217047</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="E26" t="n">
-        <v>1301.465645217047</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F26" t="n">
-        <v>890.47974042744</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G26" t="n">
-        <v>472.2920744980137</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H26" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I26" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J26" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K26" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L26" t="n">
-        <v>795.0052981540045</v>
+        <v>795.005298154005</v>
       </c>
       <c r="M26" t="n">
-        <v>1237.436361307048</v>
+        <v>1237.436361307049</v>
       </c>
       <c r="N26" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O26" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P26" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q26" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S26" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T26" t="n">
-        <v>2371.897027894854</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="U26" t="n">
-        <v>2371.897027894854</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V26" t="n">
-        <v>2040.834140551283</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="W26" t="n">
-        <v>1688.065485281169</v>
+        <v>1614.824672701619</v>
       </c>
       <c r="X26" t="n">
-        <v>1688.065485281169</v>
+        <v>1241.358914440539</v>
       </c>
       <c r="Y26" t="n">
-        <v>1688.065485281169</v>
+        <v>851.2195824647274</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>922.6086434646021</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C27" t="n">
-        <v>748.1556141834751</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D27" t="n">
-        <v>599.2212045222238</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E27" t="n">
-        <v>439.9837495167684</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F27" t="n">
-        <v>293.4491915436533</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G27" t="n">
-        <v>155.4193039928149</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H27" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I27" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J27" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K27" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L27" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N27" t="n">
-        <v>1681.835959361802</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O27" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q27" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R27" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S27" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521038</v>
       </c>
       <c r="T27" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368207</v>
       </c>
       <c r="U27" t="n">
-        <v>1995.825244415101</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V27" t="n">
-        <v>1760.673136183358</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W27" t="n">
-        <v>1506.435779455157</v>
+        <v>1363.661603477977</v>
       </c>
       <c r="X27" t="n">
-        <v>1298.584279249624</v>
+        <v>1155.810103272444</v>
       </c>
       <c r="Y27" t="n">
-        <v>1090.82398048467</v>
+        <v>948.0498045074901</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="C28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="D28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="E28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="F28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K28" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L28" t="n">
         <v>206.6297039190408</v>
@@ -6426,10 +6426,10 @@
         <v>62.04191212118991</v>
       </c>
       <c r="X28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="Y28" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>845.5939099204151</v>
+        <v>828.7681742625825</v>
       </c>
       <c r="C29" t="n">
-        <v>845.5939099204151</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="D29" t="n">
-        <v>845.5939099204151</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="E29" t="n">
         <v>459.8056573221708</v>
       </c>
       <c r="F29" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G29" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H29" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I29" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J29" t="n">
         <v>145.966048569732</v>
@@ -6493,22 +6493,22 @@
         <v>2371.897027894855</v>
       </c>
       <c r="T29" t="n">
-        <v>2371.897027894855</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U29" t="n">
-        <v>2118.117333906737</v>
+        <v>1978.973104563596</v>
       </c>
       <c r="V29" t="n">
-        <v>1995.798840221428</v>
+        <v>1978.973104563596</v>
       </c>
       <c r="W29" t="n">
-        <v>1995.798840221428</v>
+        <v>1978.973104563596</v>
       </c>
       <c r="X29" t="n">
-        <v>1622.333081960349</v>
+        <v>1605.507346302516</v>
       </c>
       <c r="Y29" t="n">
-        <v>1232.193749984537</v>
+        <v>1215.368014326704</v>
       </c>
     </row>
     <row r="30">
@@ -6518,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>779.8344674874215</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C30" t="n">
-        <v>605.3814382062945</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D30" t="n">
-        <v>456.4470285450433</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E30" t="n">
-        <v>439.9837495167684</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F30" t="n">
-        <v>293.4491915436533</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G30" t="n">
-        <v>155.4193039928149</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H30" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I30" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J30" t="n">
-        <v>81.93751399838814</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K30" t="n">
-        <v>318.2287647883252</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L30" t="n">
-        <v>697.3559079137185</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M30" t="n">
-        <v>1191.758623309281</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N30" t="n">
-        <v>1714.953720827627</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O30" t="n">
-        <v>2127.159342346856</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P30" t="n">
-        <v>2440.987626628164</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
@@ -6569,25 +6569,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S30" t="n">
-        <v>2280.589895521037</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T30" t="n">
-        <v>2081.228572368206</v>
+        <v>2290.169209714603</v>
       </c>
       <c r="U30" t="n">
-        <v>1853.051068437921</v>
+        <v>2061.991705784318</v>
       </c>
       <c r="V30" t="n">
-        <v>1617.898960206178</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="W30" t="n">
-        <v>1363.661603477976</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X30" t="n">
-        <v>1155.810103272443</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y30" t="n">
-        <v>948.0498045074896</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>351.4590821581505</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="C31" t="n">
-        <v>351.4590821581505</v>
+        <v>471.7019867528513</v>
       </c>
       <c r="D31" t="n">
-        <v>343.6227936128668</v>
+        <v>471.7019867528513</v>
       </c>
       <c r="E31" t="n">
-        <v>195.7097000304736</v>
+        <v>323.7888931704582</v>
       </c>
       <c r="F31" t="n">
-        <v>48.81975253256327</v>
+        <v>176.8989456725479</v>
       </c>
       <c r="G31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J31" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K31" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L31" t="n">
         <v>206.6297039190408</v>
@@ -6654,19 +6654,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U31" t="n">
-        <v>351.4590821581505</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V31" t="n">
-        <v>351.4590821581505</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W31" t="n">
-        <v>351.4590821581505</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X31" t="n">
-        <v>351.4590821581505</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Y31" t="n">
-        <v>351.4590821581505</v>
+        <v>640.6381696807582</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1496.103888458709</v>
+        <v>1026.249081713968</v>
       </c>
       <c r="C32" t="n">
-        <v>1496.103888458709</v>
+        <v>657.2865647735559</v>
       </c>
       <c r="D32" t="n">
-        <v>1137.838189851958</v>
+        <v>657.2865647735559</v>
       </c>
       <c r="E32" t="n">
-        <v>752.049937253714</v>
+        <v>657.2865647735559</v>
       </c>
       <c r="F32" t="n">
-        <v>341.0640324641064</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G32" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H32" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I32" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J32" t="n">
         <v>145.966048569732</v>
@@ -6730,22 +6730,22 @@
         <v>2259.7089786956</v>
       </c>
       <c r="T32" t="n">
-        <v>2259.7089786956</v>
+        <v>2040.094374027287</v>
       </c>
       <c r="U32" t="n">
-        <v>2259.7089786956</v>
+        <v>1786.314680039169</v>
       </c>
       <c r="V32" t="n">
-        <v>2259.7089786956</v>
+        <v>1786.314680039169</v>
       </c>
       <c r="W32" t="n">
-        <v>2259.7089786956</v>
+        <v>1786.314680039169</v>
       </c>
       <c r="X32" t="n">
-        <v>1886.24322043452</v>
+        <v>1412.848921778089</v>
       </c>
       <c r="Y32" t="n">
-        <v>1496.103888458709</v>
+        <v>1412.848921778089</v>
       </c>
     </row>
     <row r="33">
@@ -6755,55 +6755,55 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>722.1845715439331</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C33" t="n">
-        <v>547.7315422628061</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D33" t="n">
-        <v>398.7971326015548</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E33" t="n">
-        <v>239.5596775960993</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F33" t="n">
-        <v>93.02511962298431</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G33" t="n">
-        <v>93.02511962298431</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H33" t="n">
-        <v>93.02511962298431</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I33" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J33" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K33" t="n">
-        <v>161.1406371339193</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L33" t="n">
-        <v>540.2677802593125</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M33" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N33" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O33" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q33" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R33" t="n">
-        <v>2383.337730684675</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S33" t="n">
         <v>2222.939999577549</v>
@@ -6812,19 +6812,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U33" t="n">
-        <v>1795.401172494432</v>
+        <v>1795.401172494433</v>
       </c>
       <c r="V33" t="n">
-        <v>1560.249064262689</v>
+        <v>1560.24906426269</v>
       </c>
       <c r="W33" t="n">
-        <v>1306.011707534488</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X33" t="n">
-        <v>1098.160207328955</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y33" t="n">
-        <v>890.3999085640012</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="C34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="D34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="E34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="F34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="G34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K34" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L34" t="n">
         <v>206.6297039190408</v>
@@ -6882,28 +6882,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R34" t="n">
-        <v>565.7360729319925</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S34" t="n">
-        <v>565.7360729319925</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T34" t="n">
-        <v>337.9988400551709</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U34" t="n">
-        <v>48.81975253256327</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V34" t="n">
-        <v>48.81975253256327</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="X34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="Y34" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1398.355276762313</v>
+        <v>1154.76042100978</v>
       </c>
       <c r="C35" t="n">
-        <v>1398.355276762313</v>
+        <v>1154.76042100978</v>
       </c>
       <c r="D35" t="n">
-        <v>1040.089578155562</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="E35" t="n">
-        <v>1040.089578155562</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="F35" t="n">
-        <v>629.1036733659547</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G35" t="n">
-        <v>210.9160074365284</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H35" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I35" t="n">
         <v>48.81975253256327</v>
@@ -6943,7 +6943,7 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M35" t="n">
         <v>1237.436361307048</v>
@@ -6961,28 +6961,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R35" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S35" t="n">
-        <v>2190.61837996229</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T35" t="n">
-        <v>2141.263264008239</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="U35" t="n">
-        <v>2141.263264008239</v>
+        <v>2005.929284707482</v>
       </c>
       <c r="V35" t="n">
-        <v>2141.263264008239</v>
+        <v>2005.929284707482</v>
       </c>
       <c r="W35" t="n">
-        <v>1788.494608738124</v>
+        <v>2005.929284707482</v>
       </c>
       <c r="X35" t="n">
-        <v>1788.494608738124</v>
+        <v>1632.463526446403</v>
       </c>
       <c r="Y35" t="n">
-        <v>1398.355276762313</v>
+        <v>1541.360261073902</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.7751048338188</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C36" t="n">
-        <v>814.3220755526918</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D36" t="n">
-        <v>665.3876658914405</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E36" t="n">
-        <v>506.150210885985</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F36" t="n">
-        <v>359.6156529128699</v>
+        <v>150.6750155664728</v>
       </c>
       <c r="G36" t="n">
-        <v>221.5857653620315</v>
+        <v>150.6750155664728</v>
       </c>
       <c r="H36" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I36" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J36" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K36" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L36" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M36" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N36" t="n">
-        <v>1746.002248079784</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O36" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R36" t="n">
-        <v>2421.750760044275</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S36" t="n">
-        <v>2261.353028937149</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T36" t="n">
-        <v>2061.991705784318</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U36" t="n">
-        <v>2061.991705784318</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.839597552575</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W36" t="n">
-        <v>1572.602240824373</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X36" t="n">
-        <v>1364.750740618841</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.990441853887</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>364.8099152070275</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C37" t="n">
-        <v>364.8099152070275</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D37" t="n">
-        <v>364.8099152070275</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E37" t="n">
-        <v>364.8099152070275</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F37" t="n">
-        <v>217.9199677091171</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G37" t="n">
         <v>48.81975253256327</v>
@@ -7122,25 +7122,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S37" t="n">
-        <v>546.4583800372673</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T37" t="n">
-        <v>546.4583800372673</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U37" t="n">
-        <v>546.4583800372673</v>
+        <v>531.4937916364674</v>
       </c>
       <c r="V37" t="n">
-        <v>546.4583800372673</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="W37" t="n">
-        <v>546.4583800372673</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="X37" t="n">
-        <v>546.4583800372673</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y37" t="n">
-        <v>546.4583800372673</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1373.157624570949</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="C38" t="n">
-        <v>1373.157624570949</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D38" t="n">
-        <v>1014.891925964199</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E38" t="n">
-        <v>629.1036733659547</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F38" t="n">
-        <v>629.1036733659547</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G38" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H38" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I38" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J38" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K38" t="n">
         <v>412.3079679977591</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M38" t="n">
         <v>1237.436361307048</v>
@@ -7198,28 +7198,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2371.897027894854</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="S38" t="n">
-        <v>2371.897027894854</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="T38" t="n">
-        <v>2371.897027894854</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="U38" t="n">
-        <v>2118.117333906737</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="V38" t="n">
-        <v>2118.117333906737</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="W38" t="n">
-        <v>1765.348678636623</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="X38" t="n">
-        <v>1391.882920375543</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="Y38" t="n">
-        <v>1373.157624570949</v>
+        <v>1650.381415913963</v>
       </c>
     </row>
     <row r="39">
@@ -7235,10 +7235,10 @@
         <v>547.7315422628061</v>
       </c>
       <c r="D39" t="n">
-        <v>547.7315422628061</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E39" t="n">
-        <v>388.4940872573506</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="F39" t="n">
         <v>293.4491915436533</v>
@@ -7253,25 +7253,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J39" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K39" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L39" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N39" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O39" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q39" t="n">
         <v>2440.987626628164</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>217.7559354604702</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="C40" t="n">
-        <v>48.81975253256327</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="D40" t="n">
-        <v>48.81975253256327</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="E40" t="n">
         <v>48.81975253256327</v>
@@ -7356,28 +7356,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R40" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S40" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T40" t="n">
-        <v>260.2392585196878</v>
+        <v>417.5254252584865</v>
       </c>
       <c r="U40" t="n">
-        <v>260.2392585196878</v>
+        <v>417.5254252584865</v>
       </c>
       <c r="V40" t="n">
-        <v>260.2392585196878</v>
+        <v>417.5254252584865</v>
       </c>
       <c r="W40" t="n">
-        <v>260.2392585196878</v>
+        <v>417.5254252584865</v>
       </c>
       <c r="X40" t="n">
-        <v>260.2392585196878</v>
+        <v>417.5254252584865</v>
       </c>
       <c r="Y40" t="n">
-        <v>260.2392585196878</v>
+        <v>196.7328461149564</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1130.201151385552</v>
+        <v>1503.376390026361</v>
       </c>
       <c r="C41" t="n">
-        <v>1130.201151385552</v>
+        <v>1134.41387308595</v>
       </c>
       <c r="D41" t="n">
-        <v>771.9354527788018</v>
+        <v>1134.41387308595</v>
       </c>
       <c r="E41" t="n">
-        <v>771.9354527788018</v>
+        <v>1134.41387308595</v>
       </c>
       <c r="F41" t="n">
-        <v>360.9495479891943</v>
+        <v>723.4279682963422</v>
       </c>
       <c r="G41" t="n">
-        <v>48.81975253256327</v>
+        <v>305.240302366916</v>
       </c>
       <c r="H41" t="n">
         <v>48.81975253256327</v>
@@ -7411,10 +7411,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J41" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K41" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L41" t="n">
         <v>795.0052981540045</v>
@@ -7423,7 +7423,7 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N41" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O41" t="n">
         <v>2037.925350935285</v>
@@ -7438,25 +7438,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S41" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T41" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U41" t="n">
-        <v>2259.7089786956</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="V41" t="n">
-        <v>2259.7089786956</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="W41" t="n">
-        <v>1906.940323425486</v>
+        <v>1503.376390026361</v>
       </c>
       <c r="X41" t="n">
-        <v>1906.940323425486</v>
+        <v>1503.376390026361</v>
       </c>
       <c r="Y41" t="n">
-        <v>1516.800991449674</v>
+        <v>1503.376390026361</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>722.1845715439331</v>
+        <v>829.5376498283632</v>
       </c>
       <c r="C42" t="n">
-        <v>722.1845715439331</v>
+        <v>655.0846205472362</v>
       </c>
       <c r="D42" t="n">
-        <v>573.2501618826818</v>
+        <v>506.150210885985</v>
       </c>
       <c r="E42" t="n">
-        <v>414.0127068772263</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F42" t="n">
-        <v>267.4781489041113</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G42" t="n">
-        <v>129.4482613532729</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H42" t="n">
         <v>114.9862139017798</v>
@@ -7490,22 +7490,22 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J42" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K42" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L42" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M42" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N42" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O42" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P42" t="n">
         <v>2283.899498973758</v>
@@ -7514,28 +7514,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R42" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S42" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T42" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U42" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V42" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W42" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X42" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y42" t="n">
-        <v>890.3999085640012</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>351.4590821581505</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="C43" t="n">
-        <v>351.4590821581505</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="D43" t="n">
-        <v>351.4590821581505</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="E43" t="n">
-        <v>203.5459885757574</v>
+        <v>203.3079060614045</v>
       </c>
       <c r="F43" t="n">
-        <v>203.5459885757574</v>
+        <v>203.3079060614045</v>
       </c>
       <c r="G43" t="n">
         <v>48.81975253256327</v>
@@ -7602,19 +7602,19 @@
         <v>640.6381696807582</v>
       </c>
       <c r="U43" t="n">
-        <v>351.4590821581505</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V43" t="n">
-        <v>351.4590821581505</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W43" t="n">
-        <v>351.4590821581505</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="X43" t="n">
-        <v>351.4590821581505</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="Y43" t="n">
-        <v>351.4590821581505</v>
+        <v>351.2209996437976</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1044.14645931724</v>
+        <v>1466.005713320664</v>
       </c>
       <c r="C44" t="n">
-        <v>1044.14645931724</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D44" t="n">
-        <v>1044.14645931724</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E44" t="n">
-        <v>1044.14645931724</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F44" t="n">
-        <v>958.5909773069948</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G44" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H44" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I44" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J44" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K44" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L44" t="n">
         <v>795.0052981540045</v>
@@ -7660,40 +7660,40 @@
         <v>1237.436361307048</v>
       </c>
       <c r="N44" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O44" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P44" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q44" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R44" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S44" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T44" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U44" t="n">
-        <v>2118.117333906737</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="V44" t="n">
-        <v>1787.054446563166</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="W44" t="n">
-        <v>1434.285791293052</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="X44" t="n">
-        <v>1434.285791293052</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="Y44" t="n">
-        <v>1044.14645931724</v>
+        <v>1466.005713320664</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>814.3220755526918</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C45" t="n">
-        <v>814.3220755526918</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="D45" t="n">
-        <v>665.3876658914405</v>
+        <v>630.9000578261703</v>
       </c>
       <c r="E45" t="n">
-        <v>506.150210885985</v>
+        <v>471.6626028207148</v>
       </c>
       <c r="F45" t="n">
         <v>359.6156529128699</v>
@@ -7769,10 +7769,10 @@
         <v>1363.661603477976</v>
       </c>
       <c r="X45" t="n">
-        <v>1190.297711337714</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y45" t="n">
-        <v>982.5374125727599</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>424.5997883913116</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="C46" t="n">
-        <v>424.5997883913116</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="D46" t="n">
-        <v>376.5611201562124</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="E46" t="n">
-        <v>376.5611201562124</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="F46" t="n">
-        <v>376.5611201562124</v>
+        <v>125.0481626091523</v>
       </c>
       <c r="G46" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H46" t="n">
         <v>48.81975253256327</v>
@@ -7830,28 +7830,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R46" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="S46" t="n">
-        <v>424.5997883913116</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="T46" t="n">
-        <v>424.5997883913116</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="U46" t="n">
-        <v>424.5997883913116</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="V46" t="n">
-        <v>424.5997883913116</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="W46" t="n">
-        <v>424.5997883913116</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="X46" t="n">
-        <v>424.5997883913116</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="Y46" t="n">
-        <v>424.5997883913116</v>
+        <v>271.9381101070627</v>
       </c>
     </row>
   </sheetData>
@@ -8066,10 +8066,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>292.5201795090609</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>94.72888660085749</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>139.2426449029007</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.40241131725695</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>61.27660229194302</v>
       </c>
       <c r="K15" t="n">
-        <v>139.2426449029007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9257,13 +9257,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>203.8252941185856</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>94.72888660085704</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>51.40241131725695</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,7 +9725,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>340.482471640322</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9968,13 +9968,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>203.8252941185856</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>94.72888660085704</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>51.40241131725695</v>
+        <v>84.85469562617152</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,7 +10430,7 @@
         <v>61.27660229194302</v>
       </c>
       <c r="K33" t="n">
-        <v>139.2426449029007</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617152</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10679,13 +10679,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>203.8252941185856</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714823</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,7 +11147,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>275.6680385918563</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11156,7 +11156,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>193.2401765302593</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599044</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23266,19 +23266,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>173.4251806664452</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I11" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>162.6399059998593</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23342,7 +23342,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>141.3464342174083</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23351,10 +23351,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>35.81287827175962</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
         <v>65.50479675552441</v>
@@ -23418,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>69.09908723439685</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,10 +23436,10 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I13" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R13" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>213.8779974765521</v>
@@ -23472,13 +23472,13 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
-        <v>239.0477053310876</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>298.2070603615682</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>399.1186994795875</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23588,10 +23588,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>70.20164229760275</v>
+        <v>105.1308741609318</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>119.933920019285</v>
       </c>
       <c r="H16" t="n">
         <v>157.0547409226243</v>
@@ -23706,13 +23706,13 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T16" t="n">
-        <v>93.25613724351024</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23737,7 +23737,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S17" t="n">
         <v>179.4658614532381</v>
@@ -23788,19 +23788,19 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>147.1622926350208</v>
+        <v>94.43563777014461</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,7 +23907,7 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H19" t="n">
-        <v>46.03592379263023</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I19" t="n">
         <v>137.955174638333</v>
@@ -23946,16 +23946,16 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>212.6197173962968</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23974,7 +23974,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>160.4752923549255</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S20" t="n">
         <v>179.4658614532381</v>
@@ -24025,19 +24025,19 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>5.528613139194988</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>235.2754034973782</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24053,7 +24053,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>39.62607740540737</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24065,7 +24065,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>39.6260774054074</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>65.50479675552441</v>
@@ -24132,10 +24132,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>133.3440246538288</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24174,22 +24174,22 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T22" t="n">
-        <v>153.1881595675113</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24214,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>182.5319455673663</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>190.6873493490945</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>326.1924309016296</v>
@@ -24259,19 +24259,19 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24299,10 +24299,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>92.88627525581317</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H24" t="n">
-        <v>105.5335559456492</v>
+        <v>61.77024252613235</v>
       </c>
       <c r="I24" t="n">
         <v>65.50479675552441</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.4092130247883</v>
@@ -24411,13 +24411,13 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S25" t="n">
         <v>213.8779974765521</v>
       </c>
       <c r="T25" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2872966473816</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>31.58980704322173</v>
+        <v>238.7504950294904</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>349.1136258018137</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
-        <v>67.43012451075913</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S26" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>35.81287827175913</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24539,7 +24539,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I27" t="n">
         <v>65.50479675552441</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24578,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>198.4198312014621</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24682,13 +24682,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24733,13 +24733,13 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>79.6656715719204</v>
       </c>
       <c r="V29" t="n">
-        <v>206.6569497216792</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24767,7 +24767,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>141.3464342174088</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24779,7 +24779,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,10 +24809,10 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>48.05747717687763</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>140.8575473583814</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4092130247883</v>
+        <v>40.61081181620361</v>
       </c>
       <c r="H31" t="n">
         <v>157.0547409226243</v>
@@ -24894,7 +24894,7 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>218.4996908932607</v>
       </c>
       <c r="G32" t="n">
-        <v>124.6839521379042</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>326.1924309016296</v>
@@ -24970,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25010,13 +25010,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
-        <v>21.74148333600759</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25058,7 +25058,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>92.88627525581271</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R34" t="n">
-        <v>76.98198572012828</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S34" t="n">
         <v>213.8779974765521</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>239.0477053310876</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25165,16 +25165,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>168.5568938271194</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>296.0457059372778</v>
       </c>
     </row>
     <row r="36">
@@ -25247,13 +25247,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>4.69684554207879</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>38.02889906600392</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25289,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8957288909827</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H37" t="n">
         <v>157.0547409226243</v>
@@ -25362,22 +25362,22 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S37" t="n">
-        <v>120.6400057294961</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T37" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2872966473816</v>
+        <v>178.2343623835337</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>41.66858347344075</v>
       </c>
       <c r="S38" t="n">
         <v>179.4658614532381</v>
@@ -25447,19 +25447,19 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>367.699895809506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25475,13 +25475,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>53.35061880807847</v>
       </c>
       <c r="F39" t="n">
-        <v>50.97476563682361</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>137.7734903533118</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25596,13 +25596,13 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S40" t="n">
         <v>213.8779974765521</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>4.578243570004304</v>
       </c>
       <c r="U40" t="n">
         <v>286.2872966473816</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>104.9972917680673</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>326.1924309016296</v>
+        <v>72.33608656562041</v>
       </c>
       <c r="I41" t="n">
         <v>160.4752923549255</v>
@@ -25678,16 +25678,16 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T41" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>49.20615051753219</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>91.21612896867103</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>14.23023934202612</v>
+        <v>14.46594103123553</v>
       </c>
       <c r="H43" t="n">
         <v>157.0547409226243</v>
@@ -25842,13 +25842,13 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,25 +25867,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>165.0709956748934</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>322.1761185515684</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
         <v>179.4658614532381</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25955,7 +25955,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>34.14273198461747</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>34.14273198461754</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>101.0571914654642</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>91.94308704896515</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I46" t="n">
         <v>137.955174638333</v>
@@ -26070,7 +26070,7 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R46" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>658759.7939839958</v>
+        <v>658759.7939839959</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>658759.7939839956</v>
+        <v>658759.7939839958</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>658759.7939839959</v>
+        <v>658759.7939839957</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>658759.7939839958</v>
+        <v>658759.7939839959</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>658759.7939839959</v>
+        <v>658759.793983996</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>658759.7939839958</v>
+        <v>658759.7939839957</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>658759.7939839959</v>
+        <v>658759.7939839958</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>658759.7939839957</v>
+        <v>658759.7939839959</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>325370.8721489956</v>
+        <v>325370.8721489955</v>
       </c>
       <c r="F2" t="n">
         <v>325370.8721489956</v>
       </c>
       <c r="G2" t="n">
+        <v>325370.8721489957</v>
+      </c>
+      <c r="H2" t="n">
+        <v>325370.8721489953</v>
+      </c>
+      <c r="I2" t="n">
+        <v>325370.8721489957</v>
+      </c>
+      <c r="J2" t="n">
         <v>325370.8721489956</v>
       </c>
-      <c r="H2" t="n">
-        <v>325370.8721489958</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>325370.8721489956</v>
+      </c>
+      <c r="L2" t="n">
+        <v>325370.8721489953</v>
+      </c>
+      <c r="M2" t="n">
+        <v>325370.8721489957</v>
+      </c>
+      <c r="N2" t="n">
+        <v>325370.8721489954</v>
+      </c>
+      <c r="O2" t="n">
         <v>325370.8721489955</v>
       </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
         <v>325370.8721489955</v>
-      </c>
-      <c r="K2" t="n">
-        <v>325370.8721489955</v>
-      </c>
-      <c r="L2" t="n">
-        <v>325370.8721489955</v>
-      </c>
-      <c r="M2" t="n">
-        <v>325370.8721489955</v>
-      </c>
-      <c r="N2" t="n">
-        <v>325370.8721489956</v>
-      </c>
-      <c r="O2" t="n">
-        <v>325370.8721489954</v>
-      </c>
-      <c r="P2" t="n">
-        <v>325370.8721489956</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>369435.2991327802</v>
+        <v>369435.2991327801</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.2452810931</v>
+        <v>92014.24528109307</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26453,7 +26453,7 @@
         <v>35595.99830849798</v>
       </c>
       <c r="N4" t="n">
-        <v>35595.99830849798</v>
+        <v>35595.99830849799</v>
       </c>
       <c r="O4" t="n">
         <v>35595.99830849798</v>
@@ -26478,10 +26478,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="F5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="G5" t="n">
         <v>44136.03802033842</v>
@@ -26493,13 +26493,13 @@
         <v>44136.03802033842</v>
       </c>
       <c r="J5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="K5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="L5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="M5" t="n">
         <v>44136.03802033842</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50978.98720454338</v>
+        <v>50978.98720454332</v>
       </c>
       <c r="C6" t="n">
-        <v>131748.4187360911</v>
+        <v>131748.4187360912</v>
       </c>
       <c r="D6" t="n">
         <v>131748.4187360912</v>
       </c>
       <c r="E6" t="n">
-        <v>-130765.3878863533</v>
+        <v>-124493.3557699943</v>
       </c>
       <c r="F6" t="n">
-        <v>238669.9112464269</v>
+        <v>244941.943362786</v>
       </c>
       <c r="G6" t="n">
-        <v>238669.9112464269</v>
+        <v>244941.943362786</v>
       </c>
       <c r="H6" t="n">
-        <v>238669.9112464271</v>
+        <v>244941.9433627857</v>
       </c>
       <c r="I6" t="n">
-        <v>238669.9112464268</v>
+        <v>244941.943362786</v>
       </c>
       <c r="J6" t="n">
-        <v>175609.9686473206</v>
+        <v>181882.0007636797</v>
       </c>
       <c r="K6" t="n">
-        <v>238669.9112464268</v>
+        <v>244941.943362786</v>
       </c>
       <c r="L6" t="n">
-        <v>238669.9112464269</v>
+        <v>244941.9433627857</v>
       </c>
       <c r="M6" t="n">
-        <v>146655.6659653337</v>
+        <v>152927.698081693</v>
       </c>
       <c r="N6" t="n">
-        <v>238669.9112464269</v>
+        <v>244941.9433627857</v>
       </c>
       <c r="O6" t="n">
-        <v>238669.9112464267</v>
+        <v>244941.9433627859</v>
       </c>
       <c r="P6" t="n">
-        <v>238669.911246427</v>
+        <v>244941.9433627858</v>
       </c>
     </row>
   </sheetData>
@@ -26798,10 +26798,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="F4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="G4" t="n">
         <v>610.2469066570409</v>
@@ -26813,13 +26813,13 @@
         <v>610.2469066570409</v>
       </c>
       <c r="J4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="K4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="L4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="M4" t="n">
         <v>610.2469066570409</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>351.1641048164582</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>171.0260875537777</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27514,19 +27514,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>222.5237879647713</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>48.65020143116791</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>123.387056250247</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>319.1698855250446</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>298.9492535497108</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27706,13 +27706,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>47.24553303180052</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27742,25 +27742,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>191.1778261337908</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27791,7 +27791,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>141.2201675643428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27873,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27909,7 +27909,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>83.17903909039828</v>
       </c>
       <c r="V8" t="n">
         <v>86.73796959247585</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>320.8952054949273</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,22 +27931,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27985,22 +27985,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>171.1123110561969</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>197.8455930419602</v>
       </c>
     </row>
     <row r="10">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>71.63594515755861</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>123.387056250247</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -34786,10 +34786,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N3" t="n">
         <v>217.7067518141195</v>
-      </c>
-      <c r="N3" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>33.45228430891446</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>238.6780311009466</v>
+        <v>113.4554389912687</v>
       </c>
       <c r="L12" t="n">
         <v>382.95671022767</v>
@@ -35509,7 +35509,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>113.4554389912687</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L15" t="n">
         <v>382.95671022767</v>
@@ -35746,7 +35746,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K18" t="n">
         <v>238.6780311009466</v>
@@ -35977,13 +35977,13 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O18" t="n">
-        <v>416.3693146658877</v>
+        <v>226.3322895077438</v>
       </c>
       <c r="P18" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>33.45228430891401</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>238.6780311009466</v>
@@ -36220,7 +36220,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,7 +36445,7 @@
         <v>382.95671022767</v>
       </c>
       <c r="M24" t="n">
-        <v>374.1740901080621</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N24" t="n">
         <v>528.4798964831782</v>
@@ -36457,7 +36457,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q24" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K27" t="n">
         <v>238.6780311009466</v>
@@ -36688,13 +36688,13 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O27" t="n">
-        <v>416.3693146658877</v>
+        <v>226.3322895077438</v>
       </c>
       <c r="P27" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q27" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>33.45228430891401</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>238.6780311009466</v>
@@ -36931,7 +36931,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>33.45228430891457</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>113.4554389912687</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L33" t="n">
         <v>382.95671022767</v>
@@ -37168,7 +37168,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891457</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>238.6780311009466</v>
@@ -37399,13 +37399,13 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O36" t="n">
-        <v>226.3322895077438</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P36" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K39" t="n">
         <v>238.6780311009466</v>
@@ -37633,7 +37633,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N39" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O39" t="n">
         <v>416.3693146658877</v>
@@ -37642,7 +37642,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q39" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37797,7 +37797,7 @@
         <v>369.2231584563177</v>
       </c>
       <c r="P41" t="n">
-        <v>277.0684912329588</v>
+        <v>277.0684912329592</v>
       </c>
       <c r="Q41" t="n">
         <v>130.0651205780292</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>238.6780311009466</v>
@@ -37867,7 +37867,7 @@
         <v>382.95671022767</v>
       </c>
       <c r="M42" t="n">
-        <v>309.3596570595963</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N42" t="n">
         <v>528.4798964831782</v>
@@ -37876,7 +37876,7 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P42" t="n">
-        <v>316.9982669508155</v>
+        <v>191.7756748411377</v>
       </c>
       <c r="Q42" t="n">
         <v>158.6748764185921</v>
@@ -38037,7 +38037,7 @@
         <v>277.0684912329592</v>
       </c>
       <c r="Q44" t="n">
-        <v>130.0651205780292</v>
+        <v>130.0651205780289</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
